--- a/fgt-tables/fgt_num_membros_familia_sm.xlsx
+++ b/fgt-tables/fgt_num_membros_familia_sm.xlsx
@@ -390,10 +390,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.04386352221239224</v>
+        <v>0.04384818739818088</v>
       </c>
       <c r="C3">
-        <v>0.001253086597956394</v>
+        <v>0.001252671514768987</v>
       </c>
     </row>
     <row r="4">
@@ -401,10 +401,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.06063389098539672</v>
+        <v>0.06061387894409774</v>
       </c>
       <c r="C4">
-        <v>0.001206571135192118</v>
+        <v>0.00120605159041969</v>
       </c>
     </row>
     <row r="5">
@@ -412,10 +412,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.0812417220115341</v>
+        <v>0.08121142505810963</v>
       </c>
       <c r="C5">
-        <v>0.001569296125702243</v>
+        <v>0.00156893586430935</v>
       </c>
     </row>
     <row r="6">
@@ -423,10 +423,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1182316734118245</v>
+        <v>0.118196767062536</v>
       </c>
       <c r="C6">
-        <v>0.002420266521758579</v>
+        <v>0.002419772413294077</v>
       </c>
     </row>
     <row r="7">
@@ -434,10 +434,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1572680457904582</v>
+        <v>0.1571683142480703</v>
       </c>
       <c r="C7">
-        <v>0.004725968149006399</v>
+        <v>0.004724180560783755</v>
       </c>
     </row>
     <row r="8">
@@ -445,10 +445,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2029212638604602</v>
+        <v>0.2028829510479471</v>
       </c>
       <c r="C8">
-        <v>0.007522685775083588</v>
+        <v>0.007521499917882674</v>
       </c>
     </row>
     <row r="9">
@@ -456,10 +456,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.2359820050182249</v>
+        <v>0.2359111162592845</v>
       </c>
       <c r="C9">
-        <v>0.01605257766217709</v>
+        <v>0.01605097370839145</v>
       </c>
     </row>
     <row r="10">
@@ -492,7 +492,7 @@
         <v>0.33005888983516</v>
       </c>
       <c r="C12">
-        <v>0.04328916163033959</v>
+        <v>0.04328916163033958</v>
       </c>
     </row>
     <row r="13">
@@ -555,10 +555,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.170493778803286</v>
+        <v>0.1704937788032859</v>
       </c>
       <c r="C18">
-        <v>0.04952419596596898</v>
+        <v>0.04952419596596895</v>
       </c>
     </row>
     <row r="19">
@@ -566,10 +566,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.4863594925321585</v>
+        <v>0.4863594925321586</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>5.55111512312578e-17</v>
       </c>
     </row>
     <row r="20">
